--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gas6-Mertk.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gas6-Mertk.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.0177214827022</v>
+        <v>19.23438166666667</v>
       </c>
       <c r="H2">
-        <v>19.0177214827022</v>
+        <v>57.70314500000001</v>
       </c>
       <c r="I2">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="J2">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.19575525224514</v>
+        <v>9.519603666666667</v>
       </c>
       <c r="N2">
-        <v>9.19575525224514</v>
+        <v>28.558811</v>
       </c>
       <c r="O2">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="P2">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="Q2">
-        <v>174.882312210294</v>
+        <v>183.1036902400661</v>
       </c>
       <c r="R2">
-        <v>174.882312210294</v>
+        <v>1647.933212160595</v>
       </c>
       <c r="S2">
-        <v>0.01345658174568044</v>
+        <v>0.01214517892900578</v>
       </c>
       <c r="T2">
-        <v>0.01345658174568044</v>
+        <v>0.01214517892900577</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.0177214827022</v>
+        <v>19.23438166666667</v>
       </c>
       <c r="H3">
-        <v>19.0177214827022</v>
+        <v>57.70314500000001</v>
       </c>
       <c r="I3">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="J3">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.31139265031152</v>
+        <v>3.397950666666667</v>
       </c>
       <c r="N3">
-        <v>3.31139265031152</v>
+        <v>10.193852</v>
       </c>
       <c r="O3">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="P3">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="Q3">
-        <v>62.97514314349156</v>
+        <v>65.35748000717111</v>
       </c>
       <c r="R3">
-        <v>62.97514314349156</v>
+        <v>588.21732006454</v>
       </c>
       <c r="S3">
-        <v>0.00484571681919036</v>
+        <v>0.004335129936460009</v>
       </c>
       <c r="T3">
-        <v>0.00484571681919036</v>
+        <v>0.004335129936460009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.0177214827022</v>
+        <v>19.23438166666667</v>
       </c>
       <c r="H4">
-        <v>19.0177214827022</v>
+        <v>57.70314500000001</v>
       </c>
       <c r="I4">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="J4">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.0294731938674</v>
+        <v>35.04087533333333</v>
       </c>
       <c r="N4">
-        <v>35.0294731938674</v>
+        <v>105.122626</v>
       </c>
       <c r="O4">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="P4">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="Q4">
-        <v>666.180764886753</v>
+        <v>673.9895700954189</v>
       </c>
       <c r="R4">
-        <v>666.180764886753</v>
+        <v>6065.906130858771</v>
       </c>
       <c r="S4">
-        <v>0.05126027787943921</v>
+        <v>0.04470540115472436</v>
       </c>
       <c r="T4">
-        <v>0.05126027787943921</v>
+        <v>0.04470540115472436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.0177214827022</v>
+        <v>19.23438166666667</v>
       </c>
       <c r="H5">
-        <v>19.0177214827022</v>
+        <v>57.70314500000001</v>
       </c>
       <c r="I5">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="J5">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.6057880037372</v>
+        <v>34.43746266666667</v>
       </c>
       <c r="N5">
-        <v>27.6057880037372</v>
+        <v>103.312388</v>
       </c>
       <c r="O5">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845029</v>
       </c>
       <c r="P5">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845028</v>
       </c>
       <c r="Q5">
-        <v>524.9991875655957</v>
+        <v>662.3833005622512</v>
       </c>
       <c r="R5">
-        <v>524.9991875655957</v>
+        <v>5961.44970506026</v>
       </c>
       <c r="S5">
-        <v>0.04039684971340636</v>
+        <v>0.04393556292812293</v>
       </c>
       <c r="T5">
-        <v>0.04039684971340636</v>
+        <v>0.04393556292812292</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.0177214827022</v>
+        <v>19.23438166666667</v>
       </c>
       <c r="H6">
-        <v>19.0177214827022</v>
+        <v>57.70314500000001</v>
       </c>
       <c r="I6">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="J6">
-        <v>0.1111230752721802</v>
+        <v>0.1061888747949397</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.795196927298164</v>
+        <v>0.836805</v>
       </c>
       <c r="N6">
-        <v>0.795196927298164</v>
+        <v>2.510415</v>
       </c>
       <c r="O6">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="P6">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="Q6">
-        <v>15.12283368725707</v>
+        <v>16.095426750575</v>
       </c>
       <c r="R6">
-        <v>15.12283368725707</v>
+        <v>144.858840755175</v>
       </c>
       <c r="S6">
-        <v>0.001163649114463882</v>
+        <v>0.001067601846626599</v>
       </c>
       <c r="T6">
-        <v>0.001163649114463882</v>
+        <v>0.001067601846626599</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>100.902968218614</v>
+        <v>101.9328183333333</v>
       </c>
       <c r="H7">
-        <v>100.902968218614</v>
+        <v>305.798455</v>
       </c>
       <c r="I7">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="J7">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.19575525224514</v>
+        <v>9.519603666666667</v>
       </c>
       <c r="N7">
-        <v>9.19575525224514</v>
+        <v>28.558811</v>
       </c>
       <c r="O7">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="P7">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="Q7">
-        <v>927.8789999634442</v>
+        <v>970.3600311596672</v>
       </c>
       <c r="R7">
-        <v>927.8789999634442</v>
+        <v>8733.240280437005</v>
       </c>
       <c r="S7">
-        <v>0.07139704098887906</v>
+        <v>0.06436351003378621</v>
       </c>
       <c r="T7">
-        <v>0.07139704098887906</v>
+        <v>0.06436351003378621</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>100.902968218614</v>
+        <v>101.9328183333333</v>
       </c>
       <c r="H8">
-        <v>100.902968218614</v>
+        <v>305.798455</v>
       </c>
       <c r="I8">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="J8">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.31139265031152</v>
+        <v>3.397950666666667</v>
       </c>
       <c r="N8">
-        <v>3.31139265031152</v>
+        <v>10.193852</v>
       </c>
       <c r="O8">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="P8">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="Q8">
-        <v>334.1293473537353</v>
+        <v>346.3626880109622</v>
       </c>
       <c r="R8">
-        <v>334.1293473537353</v>
+        <v>3117.26419209866</v>
       </c>
       <c r="S8">
-        <v>0.02571008365265503</v>
+        <v>0.02297406903546971</v>
       </c>
       <c r="T8">
-        <v>0.02571008365265503</v>
+        <v>0.02297406903546971</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>100.902968218614</v>
+        <v>101.9328183333333</v>
       </c>
       <c r="H9">
-        <v>100.902968218614</v>
+        <v>305.798455</v>
       </c>
       <c r="I9">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="J9">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.0294731938674</v>
+        <v>35.04087533333333</v>
       </c>
       <c r="N9">
-        <v>35.0294731938674</v>
+        <v>105.122626</v>
       </c>
       <c r="O9">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="P9">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="Q9">
-        <v>3534.577820395594</v>
+        <v>3571.815179593647</v>
       </c>
       <c r="R9">
-        <v>3534.577820395594</v>
+        <v>32146.33661634283</v>
       </c>
       <c r="S9">
-        <v>0.2719733904217136</v>
+        <v>0.2369167677649099</v>
       </c>
       <c r="T9">
-        <v>0.2719733904217136</v>
+        <v>0.2369167677649099</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>100.902968218614</v>
+        <v>101.9328183333333</v>
       </c>
       <c r="H10">
-        <v>100.902968218614</v>
+        <v>305.798455</v>
       </c>
       <c r="I10">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="J10">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.6057880037372</v>
+        <v>34.43746266666667</v>
       </c>
       <c r="N10">
-        <v>27.6057880037372</v>
+        <v>103.312388</v>
       </c>
       <c r="O10">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845029</v>
       </c>
       <c r="P10">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845028</v>
       </c>
       <c r="Q10">
-        <v>2785.50594959089</v>
+        <v>3510.307625862282</v>
       </c>
       <c r="R10">
-        <v>2785.50594959089</v>
+        <v>31592.76863276054</v>
       </c>
       <c r="S10">
-        <v>0.2143349321038007</v>
+        <v>0.232837001570283</v>
       </c>
       <c r="T10">
-        <v>0.2143349321038007</v>
+        <v>0.2328370015702829</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>100.902968218614</v>
+        <v>101.9328183333333</v>
       </c>
       <c r="H11">
-        <v>100.902968218614</v>
+        <v>305.798455</v>
       </c>
       <c r="I11">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="J11">
-        <v>0.5895894596385826</v>
+        <v>0.5627491161960234</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.795196927298164</v>
+        <v>0.836805</v>
       </c>
       <c r="N11">
-        <v>0.795196927298164</v>
+        <v>2.510415</v>
       </c>
       <c r="O11">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="P11">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="Q11">
-        <v>80.23773028270615</v>
+        <v>85.297892045425</v>
       </c>
       <c r="R11">
-        <v>80.23773028270615</v>
+        <v>767.681028408825</v>
       </c>
       <c r="S11">
-        <v>0.006174012471534208</v>
+        <v>0.005657767791574635</v>
       </c>
       <c r="T11">
-        <v>0.006174012471534208</v>
+        <v>0.005657767791574635</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.9258550683041</v>
+        <v>33.990832</v>
       </c>
       <c r="H12">
-        <v>33.9258550683041</v>
+        <v>101.972496</v>
       </c>
       <c r="I12">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134372</v>
       </c>
       <c r="J12">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134371</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.19575525224514</v>
+        <v>9.519603666666667</v>
       </c>
       <c r="N12">
-        <v>9.19575525224514</v>
+        <v>28.558811</v>
       </c>
       <c r="O12">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="P12">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="Q12">
-        <v>311.9738599312649</v>
+        <v>323.5792489402507</v>
       </c>
       <c r="R12">
-        <v>311.9738599312649</v>
+        <v>2912.213240462256</v>
       </c>
       <c r="S12">
-        <v>0.02400529645120632</v>
+        <v>0.02146285457677092</v>
       </c>
       <c r="T12">
-        <v>0.02400529645120632</v>
+        <v>0.02146285457677091</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.9258550683041</v>
+        <v>33.990832</v>
       </c>
       <c r="H13">
-        <v>33.9258550683041</v>
+        <v>101.972496</v>
       </c>
       <c r="I13">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134372</v>
       </c>
       <c r="J13">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134371</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.31139265031152</v>
+        <v>3.397950666666667</v>
       </c>
       <c r="N13">
-        <v>3.31139265031152</v>
+        <v>10.193852</v>
       </c>
       <c r="O13">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="P13">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="Q13">
-        <v>112.341827128716</v>
+        <v>115.4991702549547</v>
       </c>
       <c r="R13">
-        <v>112.341827128716</v>
+        <v>1039.492532294592</v>
       </c>
       <c r="S13">
-        <v>0.008644310342825416</v>
+        <v>0.007661003921106008</v>
       </c>
       <c r="T13">
-        <v>0.008644310342825416</v>
+        <v>0.007661003921106006</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.9258550683041</v>
+        <v>33.990832</v>
       </c>
       <c r="H14">
-        <v>33.9258550683041</v>
+        <v>101.972496</v>
       </c>
       <c r="I14">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134372</v>
       </c>
       <c r="J14">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134371</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.0294731938674</v>
+        <v>35.04087533333333</v>
       </c>
       <c r="N14">
-        <v>35.0294731938674</v>
+        <v>105.122626</v>
       </c>
       <c r="O14">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="P14">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="Q14">
-        <v>1188.404830694189</v>
+        <v>1191.068506588277</v>
       </c>
       <c r="R14">
-        <v>1188.404830694189</v>
+        <v>10719.6165592945</v>
       </c>
       <c r="S14">
-        <v>0.09144359168792235</v>
+        <v>0.07900299611795034</v>
       </c>
       <c r="T14">
-        <v>0.09144359168792235</v>
+        <v>0.07900299611795032</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.9258550683041</v>
+        <v>33.990832</v>
       </c>
       <c r="H15">
-        <v>33.9258550683041</v>
+        <v>101.972496</v>
       </c>
       <c r="I15">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134372</v>
       </c>
       <c r="J15">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134371</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.6057880037372</v>
+        <v>34.43746266666667</v>
       </c>
       <c r="N15">
-        <v>27.6057880037372</v>
+        <v>103.312388</v>
       </c>
       <c r="O15">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845029</v>
       </c>
       <c r="P15">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845028</v>
       </c>
       <c r="Q15">
-        <v>936.5499628611162</v>
+        <v>1170.558008008939</v>
       </c>
       <c r="R15">
-        <v>936.5499628611162</v>
+        <v>10535.02207208045</v>
       </c>
       <c r="S15">
-        <v>0.07206424123098233</v>
+        <v>0.07764254469917999</v>
       </c>
       <c r="T15">
-        <v>0.07206424123098233</v>
+        <v>0.07764254469917996</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.9258550683041</v>
+        <v>33.990832</v>
       </c>
       <c r="H16">
-        <v>33.9258550683041</v>
+        <v>101.972496</v>
       </c>
       <c r="I16">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134372</v>
       </c>
       <c r="J16">
-        <v>0.1982332820394511</v>
+        <v>0.1876560560134371</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.795196927298164</v>
+        <v>0.836805</v>
       </c>
       <c r="N16">
-        <v>0.795196927298164</v>
+        <v>2.510415</v>
       </c>
       <c r="O16">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="P16">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="Q16">
-        <v>26.97773570627827</v>
+        <v>28.44369817176</v>
       </c>
       <c r="R16">
-        <v>26.97773570627827</v>
+        <v>255.99328354584</v>
       </c>
       <c r="S16">
-        <v>0.00207584232651475</v>
+        <v>0.00188665669842993</v>
       </c>
       <c r="T16">
-        <v>0.00207584232651475</v>
+        <v>0.001886656698429929</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.2502321701197</v>
+        <v>24.872162</v>
       </c>
       <c r="H17">
-        <v>16.2502321701197</v>
+        <v>74.61648600000001</v>
       </c>
       <c r="I17">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="J17">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.19575525224514</v>
+        <v>9.519603666666667</v>
       </c>
       <c r="N17">
-        <v>9.19575525224514</v>
+        <v>28.558811</v>
       </c>
       <c r="O17">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="P17">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="Q17">
-        <v>149.4331578285812</v>
+        <v>236.7731245731274</v>
       </c>
       <c r="R17">
-        <v>149.4331578285812</v>
+        <v>2130.958121158146</v>
       </c>
       <c r="S17">
-        <v>0.01149835840126264</v>
+        <v>0.01570504646711465</v>
       </c>
       <c r="T17">
-        <v>0.01149835840126264</v>
+        <v>0.01570504646711465</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.2502321701197</v>
+        <v>24.872162</v>
       </c>
       <c r="H18">
-        <v>16.2502321701197</v>
+        <v>74.61648600000001</v>
       </c>
       <c r="I18">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="J18">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.31139265031152</v>
+        <v>3.397950666666667</v>
       </c>
       <c r="N18">
-        <v>3.31139265031152</v>
+        <v>10.193852</v>
       </c>
       <c r="O18">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="P18">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="Q18">
-        <v>53.81089937399019</v>
+        <v>84.51437944934133</v>
       </c>
       <c r="R18">
-        <v>53.81089937399019</v>
+        <v>760.6294150440721</v>
       </c>
       <c r="S18">
-        <v>0.004140560340739024</v>
+        <v>0.005605797781248304</v>
       </c>
       <c r="T18">
-        <v>0.004140560340739024</v>
+        <v>0.005605797781248303</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.2502321701197</v>
+        <v>24.872162</v>
       </c>
       <c r="H19">
-        <v>16.2502321701197</v>
+        <v>74.61648600000001</v>
       </c>
       <c r="I19">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="J19">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>35.0294731938674</v>
+        <v>35.04087533333333</v>
       </c>
       <c r="N19">
-        <v>35.0294731938674</v>
+        <v>105.122626</v>
       </c>
       <c r="O19">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="P19">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="Q19">
-        <v>569.2370721973297</v>
+        <v>871.5423279124708</v>
       </c>
       <c r="R19">
-        <v>569.2370721973297</v>
+        <v>7843.880951212237</v>
       </c>
       <c r="S19">
-        <v>0.04380080008025123</v>
+        <v>0.05780897972521037</v>
       </c>
       <c r="T19">
-        <v>0.04380080008025123</v>
+        <v>0.05780897972521036</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.2502321701197</v>
+        <v>24.872162</v>
       </c>
       <c r="H20">
-        <v>16.2502321701197</v>
+        <v>74.61648600000001</v>
       </c>
       <c r="I20">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="J20">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>27.6057880037372</v>
+        <v>34.43746266666667</v>
       </c>
       <c r="N20">
-        <v>27.6057880037372</v>
+        <v>103.312388</v>
       </c>
       <c r="O20">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845029</v>
       </c>
       <c r="P20">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845028</v>
       </c>
       <c r="Q20">
-        <v>448.6004642998347</v>
+        <v>856.5341503142855</v>
       </c>
       <c r="R20">
-        <v>448.6004642998347</v>
+        <v>7708.807352828569</v>
       </c>
       <c r="S20">
-        <v>0.03451823539330809</v>
+        <v>0.05681349458731243</v>
       </c>
       <c r="T20">
-        <v>0.03451823539330809</v>
+        <v>0.05681349458731241</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.2502321701197</v>
+        <v>24.872162</v>
       </c>
       <c r="H21">
-        <v>16.2502321701197</v>
+        <v>74.61648600000001</v>
       </c>
       <c r="I21">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="J21">
-        <v>0.09495226724574136</v>
+        <v>0.1373138446698593</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.795196927298164</v>
+        <v>0.836805</v>
       </c>
       <c r="N21">
-        <v>0.795196927298164</v>
+        <v>2.510415</v>
       </c>
       <c r="O21">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="P21">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="Q21">
-        <v>12.92213468956096</v>
+        <v>20.81314952241</v>
       </c>
       <c r="R21">
-        <v>12.92213468956096</v>
+        <v>187.31834570169</v>
       </c>
       <c r="S21">
-        <v>0.0009943130301803874</v>
+        <v>0.001380526108973571</v>
       </c>
       <c r="T21">
-        <v>0.0009943130301803874</v>
+        <v>0.001380526108973571</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.04428837114151</v>
+        <v>1.103486</v>
       </c>
       <c r="H22">
-        <v>1.04428837114151</v>
+        <v>3.310458</v>
       </c>
       <c r="I22">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="J22">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.19575525224514</v>
+        <v>9.519603666666667</v>
       </c>
       <c r="N22">
-        <v>9.19575525224514</v>
+        <v>28.558811</v>
       </c>
       <c r="O22">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="P22">
-        <v>0.1210961963815387</v>
+        <v>0.1143733649354437</v>
       </c>
       <c r="Q22">
-        <v>9.603020273783065</v>
+        <v>10.50474937171533</v>
       </c>
       <c r="R22">
-        <v>9.603020273783065</v>
+        <v>94.542744345438</v>
       </c>
       <c r="S22">
-        <v>0.0007389187945102086</v>
+        <v>0.0006967749287661634</v>
       </c>
       <c r="T22">
-        <v>0.0007389187945102086</v>
+        <v>0.0006967749287661633</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.04428837114151</v>
+        <v>1.103486</v>
       </c>
       <c r="H23">
-        <v>1.04428837114151</v>
+        <v>3.310458</v>
       </c>
       <c r="I23">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="J23">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.31139265031152</v>
+        <v>3.397950666666667</v>
       </c>
       <c r="N23">
-        <v>3.31139265031152</v>
+        <v>10.193852</v>
       </c>
       <c r="O23">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="P23">
-        <v>0.04360675590845073</v>
+        <v>0.04082470922525111</v>
       </c>
       <c r="Q23">
-        <v>3.458048837003785</v>
+        <v>3.749590989357333</v>
       </c>
       <c r="R23">
-        <v>3.458048837003785</v>
+        <v>33.746318904216</v>
       </c>
       <c r="S23">
-        <v>0.0002660847530408941</v>
+        <v>0.0002487085509670838</v>
       </c>
       <c r="T23">
-        <v>0.0002660847530408941</v>
+        <v>0.0002487085509670837</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.04428837114151</v>
+        <v>1.103486</v>
       </c>
       <c r="H24">
-        <v>1.04428837114151</v>
+        <v>3.310458</v>
       </c>
       <c r="I24">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="J24">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>35.0294731938674</v>
+        <v>35.04087533333333</v>
       </c>
       <c r="N24">
-        <v>35.0294731938674</v>
+        <v>105.122626</v>
       </c>
       <c r="O24">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="P24">
-        <v>0.4612928300794809</v>
+        <v>0.4209989157626403</v>
       </c>
       <c r="Q24">
-        <v>36.58087150356898</v>
+        <v>38.66711535807866</v>
       </c>
       <c r="R24">
-        <v>36.58087150356898</v>
+        <v>348.004038222708</v>
       </c>
       <c r="S24">
-        <v>0.00281477001015448</v>
+        <v>0.002564770999845268</v>
       </c>
       <c r="T24">
-        <v>0.00281477001015448</v>
+        <v>0.002564770999845268</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.04428837114151</v>
+        <v>1.103486</v>
       </c>
       <c r="H25">
-        <v>1.04428837114151</v>
+        <v>3.310458</v>
       </c>
       <c r="I25">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="J25">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.6057880037372</v>
+        <v>34.43746266666667</v>
       </c>
       <c r="N25">
-        <v>27.6057880037372</v>
+        <v>103.312388</v>
       </c>
       <c r="O25">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845029</v>
       </c>
       <c r="P25">
-        <v>0.3635325031678613</v>
+        <v>0.4137492087845028</v>
       </c>
       <c r="Q25">
-        <v>28.82840338850056</v>
+        <v>38.00125792818933</v>
       </c>
       <c r="R25">
-        <v>28.82840338850056</v>
+        <v>342.011321353704</v>
       </c>
       <c r="S25">
-        <v>0.002218244726363895</v>
+        <v>0.002520604999604579</v>
       </c>
       <c r="T25">
-        <v>0.002218244726363895</v>
+        <v>0.002520604999604578</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.04428837114151</v>
+        <v>1.103486</v>
       </c>
       <c r="H26">
-        <v>1.04428837114151</v>
+        <v>3.310458</v>
       </c>
       <c r="I26">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="J26">
-        <v>0.006101915804044677</v>
+        <v>0.006092108325740414</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.795196927298164</v>
+        <v>0.836805</v>
       </c>
       <c r="N26">
-        <v>0.795196927298164</v>
+        <v>2.510415</v>
       </c>
       <c r="O26">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="P26">
-        <v>0.01047171446266843</v>
+        <v>0.01005380129216206</v>
       </c>
       <c r="Q26">
-        <v>0.8304149039449336</v>
+        <v>0.92340260223</v>
       </c>
       <c r="R26">
-        <v>0.8304149039449336</v>
+        <v>8.31062342007</v>
       </c>
       <c r="S26">
-        <v>6.389751997519969E-05</v>
+        <v>6.12488465573202E-05</v>
       </c>
       <c r="T26">
-        <v>6.389751997519969E-05</v>
+        <v>6.12488465573202E-05</v>
       </c>
     </row>
   </sheetData>
